--- a/Data/Example Data.xlsx
+++ b/Data/Example Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\KDL Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Public Forks\PUB Studies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AC335-891E-44B6-ADC7-6C44B59B0D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4413C06-75D3-42C2-B4FB-6107A482D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="M228" sqref="M228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,15 +2699,43 @@
         <v>5</v>
       </c>
     </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -2715,13 +2743,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
@@ -2729,13 +2757,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
@@ -2743,13 +2771,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>44891</v>
+        <v>44889</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -2757,13 +2785,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -2771,7 +2799,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2785,7 +2813,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2808,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -2822,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -2836,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,7 +2900,7 @@
         <v>44891</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -2886,7 +2914,7 @@
         <v>44891</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -2897,7 +2925,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -2906,12 +2934,12 @@
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2920,35 +2948,35 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3018,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3032,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,30 +3121,30 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3127,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -3141,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
         <v>5</v>
@@ -3208,13 +3236,13 @@
         <v>44894</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
@@ -3233,16 +3261,16 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
         <v>5</v>
@@ -3326,7 +3354,7 @@
         <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3348,13 +3376,13 @@
         <v>44895</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3376,13 +3404,13 @@
         <v>44895</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3404,37 +3432,14 @@
         <v>44895</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
-        <v>44895</v>
-      </c>
-      <c r="B216">
-        <v>2</v>
-      </c>
-      <c r="C216" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
